--- a/Regression_Drop 2.xlsx
+++ b/Regression_Drop 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="High level" sheetId="1" r:id="rId1"/>
@@ -1470,17 +1470,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1488,29 +1479,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1524,6 +1494,36 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1531,217 +1531,7 @@
     <cellStyle name="Normal 3 4" xfId="2"/>
     <cellStyle name="Normal_PSD-MKTG-0145 - Test Scenarios 1.4" xfId="3"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <fill>
         <patternFill>
@@ -2499,9 +2289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XCW20"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35999,8 +35789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A52"/>
+    <sheetView topLeftCell="A68" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36073,11 +35863,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="15">
@@ -36095,13 +35885,13 @@
       <c r="H2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="33" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="15" t="s">
@@ -36110,13 +35900,13 @@
       <c r="M2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="46"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="15">
         <v>2</v>
       </c>
@@ -36132,22 +35922,22 @@
       <c r="H3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="15"/>
       <c r="M3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="33" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="15">
@@ -36165,13 +35955,13 @@
       <c r="H4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="40" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="18" t="s">
@@ -36180,13 +35970,13 @@
       <c r="M4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
     </row>
     <row r="5" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="46"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="15">
         <v>2</v>
       </c>
@@ -36202,20 +35992,20 @@
       <c r="H5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="15"/>
       <c r="M5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="46"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="15">
         <v>3</v>
       </c>
@@ -36231,20 +36021,20 @@
       <c r="H6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="15"/>
       <c r="M6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
     </row>
     <row r="7" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="46"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="15">
         <v>4</v>
       </c>
@@ -36260,20 +36050,20 @@
       <c r="H7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
       <c r="L7" s="15"/>
       <c r="M7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="46"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="15">
         <v>5</v>
       </c>
@@ -36289,22 +36079,22 @@
       <c r="H8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="15"/>
       <c r="M8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="34" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="33" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="15">
@@ -36322,13 +36112,13 @@
       <c r="H9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="33" t="s">
         <v>72</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -36337,13 +36127,13 @@
       <c r="M9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
     </row>
     <row r="10" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="46"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="15">
         <v>2</v>
       </c>
@@ -36359,20 +36149,20 @@
       <c r="H10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="15"/>
       <c r="M10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="46"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="15">
         <v>3</v>
       </c>
@@ -36388,20 +36178,20 @@
       <c r="H11" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
     </row>
     <row r="12" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="46"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="15">
         <v>4</v>
       </c>
@@ -36417,22 +36207,22 @@
       <c r="H12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="15"/>
       <c r="M12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
     </row>
     <row r="13" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="33" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="15">
@@ -36450,13 +36240,13 @@
       <c r="H13" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="33" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="15" t="s">
@@ -36465,13 +36255,13 @@
       <c r="M13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
     </row>
     <row r="14" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="46"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="15">
         <v>2</v>
       </c>
@@ -36487,20 +36277,20 @@
       <c r="H14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="15"/>
       <c r="M14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
     </row>
     <row r="15" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="46"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="15">
         <v>3</v>
       </c>
@@ -36516,20 +36306,20 @@
       <c r="H15" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
       <c r="L15" s="15"/>
       <c r="M15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
     </row>
     <row r="16" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="46"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="15">
         <v>4</v>
       </c>
@@ -36545,22 +36335,22 @@
       <c r="H16" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="15"/>
       <c r="M16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="34" t="s">
         <v>101</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="44" t="s">
         <v>102</v>
       </c>
       <c r="D17" s="23" t="s">
@@ -36578,28 +36368,28 @@
       <c r="H17" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="41" t="s">
         <v>109</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="33"/>
-      <c r="O17" s="36"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="43"/>
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="40"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="23" t="s">
         <v>110</v>
       </c>
@@ -36615,20 +36405,20 @@
       <c r="H18" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="34"/>
-      <c r="O18" s="36"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
     </row>
     <row r="19" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="40"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="23" t="s">
         <v>114</v>
       </c>
@@ -36644,20 +36434,20 @@
       <c r="H19" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
       <c r="M19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="36"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="43"/>
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="40"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="23" t="s">
         <v>117</v>
       </c>
@@ -36673,20 +36463,20 @@
       <c r="H20" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
       <c r="M20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="34"/>
-      <c r="O20" s="36"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="40"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="23" t="s">
         <v>120</v>
       </c>
@@ -36702,20 +36492,20 @@
       <c r="H21" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="34"/>
-      <c r="O21" s="36"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="43"/>
     </row>
     <row r="22" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="40"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="23" t="s">
         <v>123</v>
       </c>
@@ -36731,20 +36521,20 @@
       <c r="H22" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="34"/>
-      <c r="O22" s="36"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="43"/>
     </row>
     <row r="23" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="40"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="23" t="s">
         <v>127</v>
       </c>
@@ -36760,20 +36550,20 @@
       <c r="H23" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="34"/>
-      <c r="O23" s="36"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="43"/>
     </row>
     <row r="24" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="40"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="23" t="s">
         <v>130</v>
       </c>
@@ -36789,22 +36579,22 @@
       <c r="H24" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="46"/>
       <c r="M24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="34"/>
-      <c r="O24" s="36"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="43"/>
     </row>
     <row r="25" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="44" t="s">
         <v>139</v>
       </c>
       <c r="D25" s="23" t="s">
@@ -36822,28 +36612,28 @@
       <c r="H25" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L25" s="33" t="s">
+      <c r="L25" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="36"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="43"/>
     </row>
     <row r="26" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="38"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="40"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="23" t="s">
         <v>142</v>
       </c>
@@ -36859,20 +36649,20 @@
       <c r="H26" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="34"/>
-      <c r="O26" s="36"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="43"/>
     </row>
     <row r="27" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="40"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="23" t="s">
         <v>144</v>
       </c>
@@ -36888,20 +36678,20 @@
       <c r="H27" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="34"/>
-      <c r="O27" s="36"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="43"/>
     </row>
     <row r="28" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="38"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="40"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="23" t="s">
         <v>145</v>
       </c>
@@ -36917,20 +36707,20 @@
       <c r="H28" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="34"/>
-      <c r="O28" s="36"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="43"/>
     </row>
     <row r="29" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="38"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="40"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="23" t="s">
         <v>147</v>
       </c>
@@ -36946,20 +36736,20 @@
       <c r="H29" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
       <c r="M29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="34"/>
-      <c r="O29" s="36"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="43"/>
     </row>
     <row r="30" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="40"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="23" t="s">
         <v>149</v>
       </c>
@@ -36975,20 +36765,20 @@
       <c r="H30" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
       <c r="M30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="36"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="43"/>
     </row>
     <row r="31" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="38"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="40"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="23" t="s">
         <v>151</v>
       </c>
@@ -37004,20 +36794,20 @@
       <c r="H31" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
       <c r="M31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="34"/>
-      <c r="O31" s="36"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="43"/>
     </row>
     <row r="32" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="38"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="40"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="23" t="s">
         <v>152</v>
       </c>
@@ -37033,22 +36823,22 @@
       <c r="H32" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="46"/>
       <c r="M32" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N32" s="34"/>
-      <c r="O32" s="36"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="43"/>
     </row>
     <row r="33" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="34" t="s">
         <v>153</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="44" t="s">
         <v>154</v>
       </c>
       <c r="D33" s="23" t="s">
@@ -37066,28 +36856,28 @@
       <c r="H33" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K33" s="33" t="s">
+      <c r="K33" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L33" s="33" t="s">
+      <c r="L33" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="33"/>
-      <c r="O33" s="36"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="43"/>
     </row>
     <row r="34" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="38"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="40"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="23" t="s">
         <v>156</v>
       </c>
@@ -37103,20 +36893,20 @@
       <c r="H34" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
       <c r="M34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="34"/>
-      <c r="O34" s="36"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="43"/>
     </row>
     <row r="35" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="38"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="40"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="23" t="s">
         <v>158</v>
       </c>
@@ -37132,20 +36922,20 @@
       <c r="H35" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
       <c r="M35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="34"/>
-      <c r="O35" s="36"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="43"/>
     </row>
     <row r="36" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="38"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="40"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="23" t="s">
         <v>159</v>
       </c>
@@ -37161,20 +36951,20 @@
       <c r="H36" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
       <c r="M36" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N36" s="34"/>
-      <c r="O36" s="36"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="43"/>
     </row>
     <row r="37" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="40"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="23" t="s">
         <v>161</v>
       </c>
@@ -37190,20 +36980,20 @@
       <c r="H37" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
       <c r="M37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="34"/>
-      <c r="O37" s="36"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="43"/>
     </row>
     <row r="38" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="38"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="40"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="23" t="s">
         <v>163</v>
       </c>
@@ -37219,20 +37009,20 @@
       <c r="H38" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
       <c r="M38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="34"/>
-      <c r="O38" s="36"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="43"/>
     </row>
     <row r="39" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="38"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="40"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="23" t="s">
         <v>165</v>
       </c>
@@ -37248,20 +37038,20 @@
       <c r="H39" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
       <c r="M39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="34"/>
-      <c r="O39" s="36"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="43"/>
     </row>
     <row r="40" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="40"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="23" t="s">
         <v>166</v>
       </c>
@@ -37277,22 +37067,22 @@
       <c r="H40" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="35"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="46"/>
       <c r="M40" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="34"/>
-      <c r="O40" s="36"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="43"/>
     </row>
     <row r="41" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="47" t="s">
         <v>167</v>
       </c>
       <c r="B41" s="14"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="44" t="s">
         <v>168</v>
       </c>
       <c r="D41" s="23" t="s">
@@ -37310,28 +37100,28 @@
       <c r="H41" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J41" s="33" t="s">
+      <c r="J41" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K41" s="33" t="s">
+      <c r="K41" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L41" s="33" t="s">
+      <c r="L41" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M41" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="33"/>
-      <c r="O41" s="36"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="43"/>
     </row>
     <row r="42" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="45"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="40"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="23" t="s">
         <v>170</v>
       </c>
@@ -37347,20 +37137,20 @@
       <c r="H42" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
       <c r="M42" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="34"/>
-      <c r="O42" s="36"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="43"/>
     </row>
     <row r="43" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="40"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="23" t="s">
         <v>173</v>
       </c>
@@ -37376,20 +37166,20 @@
       <c r="H43" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
       <c r="M43" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="34"/>
-      <c r="O43" s="36"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="43"/>
     </row>
     <row r="44" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="45"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="40"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="23" t="s">
         <v>174</v>
       </c>
@@ -37405,22 +37195,22 @@
       <c r="H44" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="35"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="46"/>
       <c r="M44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="34"/>
-      <c r="O44" s="36"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="43"/>
     </row>
     <row r="45" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="34" t="s">
         <v>177</v>
       </c>
       <c r="B45" s="14"/>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="44" t="s">
         <v>178</v>
       </c>
       <c r="D45" s="23" t="s">
@@ -37438,28 +37228,28 @@
       <c r="H45" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="I45" s="33" t="s">
+      <c r="I45" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J45" s="33" t="s">
+      <c r="J45" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="K45" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L45" s="33" t="s">
+      <c r="L45" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M45" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="33"/>
-      <c r="O45" s="36"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="43"/>
     </row>
     <row r="46" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="38"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="40"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="23" t="s">
         <v>181</v>
       </c>
@@ -37475,20 +37265,20 @@
       <c r="H46" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
       <c r="M46" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="34"/>
-      <c r="O46" s="36"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="43"/>
     </row>
     <row r="47" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="38"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="40"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="23" t="s">
         <v>183</v>
       </c>
@@ -37504,20 +37294,20 @@
       <c r="H47" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
       <c r="M47" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="34"/>
-      <c r="O47" s="36"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="43"/>
     </row>
     <row r="48" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="38"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="41"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="23" t="s">
         <v>184</v>
       </c>
@@ -37533,22 +37323,22 @@
       <c r="H48" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
       <c r="M48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="35"/>
-      <c r="O48" s="36"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="43"/>
     </row>
     <row r="49" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="34" t="s">
         <v>186</v>
       </c>
       <c r="B49" s="14"/>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="44" t="s">
         <v>187</v>
       </c>
       <c r="D49" s="23" t="s">
@@ -37566,28 +37356,28 @@
       <c r="H49" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="I49" s="33" t="s">
+      <c r="I49" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J49" s="33" t="s">
+      <c r="J49" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K49" s="33" t="s">
+      <c r="K49" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L49" s="33" t="s">
+      <c r="L49" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M49" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="33"/>
-      <c r="O49" s="36"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="43"/>
     </row>
     <row r="50" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="38"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="40"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="23" t="s">
         <v>190</v>
       </c>
@@ -37603,20 +37393,20 @@
       <c r="H50" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
       <c r="M50" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="34"/>
-      <c r="O50" s="36"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="43"/>
     </row>
     <row r="51" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="38"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="40"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="23" t="s">
         <v>192</v>
       </c>
@@ -37632,20 +37422,20 @@
       <c r="H51" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
       <c r="M51" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="34"/>
-      <c r="O51" s="36"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="43"/>
     </row>
     <row r="52" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="38"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="41"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="23" t="s">
         <v>193</v>
       </c>
@@ -37661,22 +37451,22 @@
       <c r="H52" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
       <c r="M52" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="35"/>
-      <c r="O52" s="36"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="43"/>
     </row>
     <row r="53" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="34" t="s">
         <v>195</v>
       </c>
       <c r="B53" s="14"/>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="44" t="s">
         <v>196</v>
       </c>
       <c r="D53" s="23" t="s">
@@ -37694,28 +37484,28 @@
       <c r="H53" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="I53" s="33" t="s">
+      <c r="I53" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J53" s="33" t="s">
+      <c r="J53" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K53" s="33" t="s">
+      <c r="K53" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L53" s="33" t="s">
+      <c r="L53" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M53" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="33"/>
-      <c r="O53" s="36"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="43"/>
     </row>
     <row r="54" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="38"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="40"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="23" t="s">
         <v>200</v>
       </c>
@@ -37731,20 +37521,20 @@
       <c r="H54" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
       <c r="M54" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="34"/>
-      <c r="O54" s="36"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="43"/>
     </row>
     <row r="55" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="38"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="40"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="23" t="s">
         <v>203</v>
       </c>
@@ -37760,20 +37550,20 @@
       <c r="H55" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
       <c r="M55" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="34"/>
-      <c r="O55" s="36"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="43"/>
     </row>
     <row r="56" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="38"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="40"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="23" t="s">
         <v>205</v>
       </c>
@@ -37789,22 +37579,22 @@
       <c r="H56" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="35"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="46"/>
       <c r="M56" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="34"/>
-      <c r="O56" s="36"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="43"/>
     </row>
     <row r="57" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="34" t="s">
         <v>209</v>
       </c>
       <c r="B57" s="14"/>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="44" t="s">
         <v>210</v>
       </c>
       <c r="D57" s="23" t="s">
@@ -37822,28 +37612,28 @@
       <c r="H57" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="I57" s="33" t="s">
+      <c r="I57" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J57" s="33" t="s">
+      <c r="J57" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K57" s="33" t="s">
+      <c r="K57" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L57" s="33" t="s">
+      <c r="L57" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M57" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="33"/>
-      <c r="O57" s="36"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="43"/>
     </row>
     <row r="58" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="38"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="40"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="23" t="s">
         <v>214</v>
       </c>
@@ -37859,20 +37649,20 @@
       <c r="H58" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
       <c r="M58" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="34"/>
-      <c r="O58" s="36"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="43"/>
     </row>
     <row r="59" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="38"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="40"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="23" t="s">
         <v>217</v>
       </c>
@@ -37888,20 +37678,20 @@
       <c r="H59" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
       <c r="M59" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N59" s="34"/>
-      <c r="O59" s="36"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="43"/>
     </row>
     <row r="60" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="38"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="41"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="23" t="s">
         <v>218</v>
       </c>
@@ -37917,22 +37707,22 @@
       <c r="H60" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
       <c r="M60" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N60" s="35"/>
-      <c r="O60" s="36"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="43"/>
     </row>
     <row r="61" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B61" s="14"/>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="44" t="s">
         <v>220</v>
       </c>
       <c r="D61" s="23" t="s">
@@ -37950,28 +37740,28 @@
       <c r="H61" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="I61" s="33" t="s">
+      <c r="I61" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J61" s="33" t="s">
+      <c r="J61" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="K61" s="33" t="s">
+      <c r="K61" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L61" s="33" t="s">
+      <c r="L61" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M61" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="33"/>
-      <c r="O61" s="36"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="43"/>
     </row>
     <row r="62" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="38"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="40"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="23" t="s">
         <v>225</v>
       </c>
@@ -37987,20 +37777,20 @@
       <c r="H62" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
       <c r="M62" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N62" s="34"/>
-      <c r="O62" s="36"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="43"/>
     </row>
     <row r="63" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="40"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="23" t="s">
         <v>227</v>
       </c>
@@ -38016,20 +37806,20 @@
       <c r="H63" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
       <c r="M63" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N63" s="34"/>
-      <c r="O63" s="36"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="43"/>
     </row>
     <row r="64" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="38"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="41"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="23" t="s">
         <v>229</v>
       </c>
@@ -38045,24 +37835,24 @@
       <c r="H64" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
       <c r="M64" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="35"/>
-      <c r="O64" s="36"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="43"/>
     </row>
     <row r="65" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="34" t="s">
         <v>231</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="44" t="s">
         <v>232</v>
       </c>
       <c r="D65" s="23" t="s">
@@ -38080,28 +37870,28 @@
       <c r="H65" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="I65" s="33" t="s">
+      <c r="I65" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J65" s="33" t="s">
+      <c r="J65" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K65" s="33" t="s">
+      <c r="K65" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L65" s="33" t="s">
+      <c r="L65" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M65" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N65" s="33"/>
-      <c r="O65" s="36"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="43"/>
     </row>
     <row r="66" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="38"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="40"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="23" t="s">
         <v>236</v>
       </c>
@@ -38117,20 +37907,20 @@
       <c r="H66" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
       <c r="M66" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="34"/>
-      <c r="O66" s="36"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="43"/>
     </row>
     <row r="67" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="38"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="40"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="23" t="s">
         <v>239</v>
       </c>
@@ -38146,22 +37936,22 @@
       <c r="H67" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="35"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="46"/>
       <c r="M67" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="34"/>
-      <c r="O67" s="36"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="43"/>
     </row>
     <row r="68" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="34" t="s">
         <v>242</v>
       </c>
       <c r="B68" s="14"/>
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="44" t="s">
         <v>243</v>
       </c>
       <c r="D68" s="23" t="s">
@@ -38179,28 +37969,28 @@
       <c r="H68" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="I68" s="33" t="s">
+      <c r="I68" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J68" s="33" t="s">
+      <c r="J68" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K68" s="33" t="s">
+      <c r="K68" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L68" s="33" t="s">
+      <c r="L68" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M68" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="33"/>
-      <c r="O68" s="36"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="43"/>
     </row>
     <row r="69" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="38"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="40"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="23" t="s">
         <v>245</v>
       </c>
@@ -38216,20 +38006,20 @@
       <c r="H69" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
       <c r="M69" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="34"/>
-      <c r="O69" s="36"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="43"/>
     </row>
     <row r="70" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="38"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="40"/>
+      <c r="C70" s="45"/>
       <c r="D70" s="23" t="s">
         <v>248</v>
       </c>
@@ -38245,22 +38035,22 @@
       <c r="H70" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="35"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="46"/>
       <c r="M70" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="34"/>
-      <c r="O70" s="36"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="43"/>
     </row>
     <row r="71" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="34" t="s">
         <v>252</v>
       </c>
       <c r="B71" s="14"/>
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="44" t="s">
         <v>253</v>
       </c>
       <c r="D71" s="23" t="s">
@@ -38278,28 +38068,28 @@
       <c r="H71" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="I71" s="33" t="s">
+      <c r="I71" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J71" s="33" t="s">
+      <c r="J71" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K71" s="33" t="s">
+      <c r="K71" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L71" s="33" t="s">
+      <c r="L71" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M71" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="33"/>
-      <c r="O71" s="36"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="43"/>
     </row>
     <row r="72" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="38"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="40"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="23" t="s">
         <v>255</v>
       </c>
@@ -38315,20 +38105,20 @@
       <c r="H72" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
       <c r="M72" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="34"/>
-      <c r="O72" s="36"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="43"/>
     </row>
     <row r="73" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="38"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="40"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="23" t="s">
         <v>256</v>
       </c>
@@ -38344,20 +38134,20 @@
       <c r="H73" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
       <c r="M73" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N73" s="34"/>
-      <c r="O73" s="36"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="43"/>
     </row>
     <row r="74" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="38"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="40"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="23" t="s">
         <v>257</v>
       </c>
@@ -38373,20 +38163,20 @@
       <c r="H74" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
       <c r="M74" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N74" s="34"/>
-      <c r="O74" s="36"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="43"/>
     </row>
     <row r="75" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="38"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="40"/>
+      <c r="C75" s="45"/>
       <c r="D75" s="23" t="s">
         <v>260</v>
       </c>
@@ -38402,20 +38192,20 @@
       <c r="H75" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
       <c r="M75" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N75" s="34"/>
-      <c r="O75" s="36"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="43"/>
     </row>
     <row r="76" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="38"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="40"/>
+      <c r="C76" s="45"/>
       <c r="D76" s="23" t="s">
         <v>262</v>
       </c>
@@ -38431,20 +38221,20 @@
       <c r="H76" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
       <c r="M76" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N76" s="34"/>
-      <c r="O76" s="36"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="43"/>
     </row>
     <row r="77" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="38"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="40"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="23" t="s">
         <v>265</v>
       </c>
@@ -38460,22 +38250,22 @@
       <c r="H77" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="35"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="46"/>
       <c r="M77" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N77" s="34"/>
-      <c r="O77" s="36"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="43"/>
     </row>
     <row r="78" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="34" t="s">
         <v>266</v>
       </c>
       <c r="B78" s="14"/>
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="44" t="s">
         <v>267</v>
       </c>
       <c r="D78" s="23" t="s">
@@ -38493,28 +38283,28 @@
       <c r="H78" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="I78" s="33" t="s">
+      <c r="I78" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J78" s="33" t="s">
+      <c r="J78" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K78" s="33" t="s">
+      <c r="K78" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L78" s="33" t="s">
+      <c r="L78" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M78" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N78" s="33"/>
-      <c r="O78" s="36"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="43"/>
     </row>
     <row r="79" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="38"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="40"/>
+      <c r="C79" s="45"/>
       <c r="D79" s="23" t="s">
         <v>271</v>
       </c>
@@ -38530,20 +38320,20 @@
       <c r="H79" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
       <c r="M79" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N79" s="34"/>
-      <c r="O79" s="36"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="43"/>
     </row>
     <row r="80" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="38"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="40"/>
+      <c r="C80" s="45"/>
       <c r="D80" s="23" t="s">
         <v>274</v>
       </c>
@@ -38559,20 +38349,20 @@
       <c r="H80" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
       <c r="M80" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N80" s="34"/>
-      <c r="O80" s="36"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="43"/>
     </row>
     <row r="81" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="38"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="40"/>
+      <c r="C81" s="45"/>
       <c r="D81" s="23" t="s">
         <v>277</v>
       </c>
@@ -38588,20 +38378,20 @@
       <c r="H81" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
       <c r="M81" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N81" s="34"/>
-      <c r="O81" s="36"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="43"/>
     </row>
     <row r="82" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="43"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="40"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="23" t="s">
         <v>280</v>
       </c>
@@ -38617,22 +38407,22 @@
       <c r="H82" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="35"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="46"/>
       <c r="M82" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N82" s="34"/>
-      <c r="O82" s="36"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="43"/>
     </row>
     <row r="83" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="34" t="s">
         <v>283</v>
       </c>
       <c r="B83" s="14"/>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="44" t="s">
         <v>284</v>
       </c>
       <c r="D83" s="23" t="s">
@@ -38650,28 +38440,28 @@
       <c r="H83" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="I83" s="33" t="s">
+      <c r="I83" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J83" s="33" t="s">
+      <c r="J83" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K83" s="33" t="s">
+      <c r="K83" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L83" s="33" t="s">
+      <c r="L83" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M83" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N83" s="33"/>
-      <c r="O83" s="36"/>
+      <c r="N83" s="41"/>
+      <c r="O83" s="43"/>
     </row>
     <row r="84" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="38"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="40"/>
+      <c r="C84" s="45"/>
       <c r="D84" s="23" t="s">
         <v>286</v>
       </c>
@@ -38687,20 +38477,20 @@
       <c r="H84" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
       <c r="M84" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N84" s="34"/>
-      <c r="O84" s="36"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="43"/>
     </row>
     <row r="85" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="38"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="40"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="23" t="s">
         <v>288</v>
       </c>
@@ -38716,20 +38506,20 @@
       <c r="H85" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
       <c r="M85" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N85" s="34"/>
-      <c r="O85" s="36"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="43"/>
     </row>
     <row r="86" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="38"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="40"/>
+      <c r="C86" s="45"/>
       <c r="D86" s="23" t="s">
         <v>290</v>
       </c>
@@ -38745,20 +38535,20 @@
       <c r="H86" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
       <c r="M86" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N86" s="34"/>
-      <c r="O86" s="36"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="43"/>
     </row>
     <row r="87" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="38"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="40"/>
+      <c r="C87" s="45"/>
       <c r="D87" s="23" t="s">
         <v>293</v>
       </c>
@@ -38774,22 +38564,22 @@
       <c r="H87" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="35"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="46"/>
       <c r="M87" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N87" s="34"/>
-      <c r="O87" s="36"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="43"/>
     </row>
     <row r="88" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="34" t="s">
         <v>294</v>
       </c>
       <c r="B88" s="14"/>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="44" t="s">
         <v>295</v>
       </c>
       <c r="D88" s="23" t="s">
@@ -38807,28 +38597,28 @@
       <c r="H88" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="I88" s="33" t="s">
+      <c r="I88" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J88" s="42" t="s">
+      <c r="J88" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="K88" s="33" t="s">
+      <c r="K88" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L88" s="33" t="s">
+      <c r="L88" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M88" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N88" s="33"/>
-      <c r="O88" s="36"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="43"/>
     </row>
     <row r="89" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="38"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="40"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="23" t="s">
         <v>297</v>
       </c>
@@ -38844,20 +38634,20 @@
       <c r="H89" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="I89" s="34"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
       <c r="M89" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N89" s="34"/>
-      <c r="O89" s="36"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="43"/>
     </row>
     <row r="90" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="38"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="40"/>
+      <c r="C90" s="45"/>
       <c r="D90" s="23" t="s">
         <v>300</v>
       </c>
@@ -38873,20 +38663,20 @@
       <c r="H90" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="I90" s="34"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
       <c r="M90" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N90" s="34"/>
-      <c r="O90" s="36"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="43"/>
     </row>
     <row r="91" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="38"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="40"/>
+      <c r="C91" s="45"/>
       <c r="D91" s="23" t="s">
         <v>303</v>
       </c>
@@ -38902,20 +38692,20 @@
       <c r="H91" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="I91" s="34"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
       <c r="M91" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N91" s="34"/>
-      <c r="O91" s="36"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="43"/>
     </row>
     <row r="92" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="38"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="40"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="23" t="s">
         <v>306</v>
       </c>
@@ -38931,22 +38721,22 @@
       <c r="H92" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="I92" s="34"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="35"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="46"/>
       <c r="M92" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N92" s="34"/>
-      <c r="O92" s="36"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="43"/>
     </row>
     <row r="93" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="34" t="s">
         <v>307</v>
       </c>
       <c r="B93" s="14"/>
-      <c r="C93" s="39" t="s">
+      <c r="C93" s="44" t="s">
         <v>308</v>
       </c>
       <c r="D93" s="23" t="s">
@@ -38964,28 +38754,28 @@
       <c r="H93" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="I93" s="33" t="s">
+      <c r="I93" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J93" s="42" t="s">
+      <c r="J93" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="K93" s="33" t="s">
+      <c r="K93" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L93" s="33" t="s">
+      <c r="L93" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M93" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N93" s="33"/>
-      <c r="O93" s="36"/>
+      <c r="N93" s="41"/>
+      <c r="O93" s="43"/>
     </row>
     <row r="94" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="38"/>
+      <c r="A94" s="35"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="40"/>
+      <c r="C94" s="45"/>
       <c r="D94" s="23" t="s">
         <v>310</v>
       </c>
@@ -39001,20 +38791,20 @@
       <c r="H94" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="I94" s="34"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="34"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
       <c r="M94" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N94" s="34"/>
-      <c r="O94" s="36"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="43"/>
     </row>
     <row r="95" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="38"/>
+      <c r="A95" s="35"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="40"/>
+      <c r="C95" s="45"/>
       <c r="D95" s="23" t="s">
         <v>312</v>
       </c>
@@ -39030,20 +38820,20 @@
       <c r="H95" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="I95" s="34"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="34"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
       <c r="M95" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N95" s="34"/>
-      <c r="O95" s="36"/>
+      <c r="N95" s="42"/>
+      <c r="O95" s="43"/>
     </row>
     <row r="96" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="38"/>
+      <c r="A96" s="35"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="40"/>
+      <c r="C96" s="45"/>
       <c r="D96" s="23" t="s">
         <v>314</v>
       </c>
@@ -39059,20 +38849,20 @@
       <c r="H96" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="I96" s="34"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="34"/>
-      <c r="L96" s="34"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
       <c r="M96" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N96" s="34"/>
-      <c r="O96" s="36"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="43"/>
     </row>
     <row r="97" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="38"/>
+      <c r="A97" s="35"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="40"/>
+      <c r="C97" s="45"/>
       <c r="D97" s="23" t="s">
         <v>317</v>
       </c>
@@ -39088,22 +38878,22 @@
       <c r="H97" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="I97" s="34"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="34"/>
-      <c r="L97" s="35"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="46"/>
       <c r="M97" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N97" s="34"/>
-      <c r="O97" s="36"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="43"/>
     </row>
     <row r="98" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="37" t="s">
+      <c r="A98" s="34" t="s">
         <v>318</v>
       </c>
       <c r="B98" s="14"/>
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="44" t="s">
         <v>319</v>
       </c>
       <c r="D98" s="23" t="s">
@@ -39121,28 +38911,28 @@
       <c r="H98" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="I98" s="33" t="s">
+      <c r="I98" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J98" s="33" t="s">
+      <c r="J98" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K98" s="33" t="s">
+      <c r="K98" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="L98" s="33" t="s">
+      <c r="L98" s="41" t="s">
         <v>141</v>
       </c>
       <c r="M98" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N98" s="33"/>
-      <c r="O98" s="36"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="43"/>
     </row>
     <row r="99" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="38"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="40"/>
+      <c r="C99" s="45"/>
       <c r="D99" s="23" t="s">
         <v>322</v>
       </c>
@@ -39158,20 +38948,20 @@
       <c r="H99" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="34"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
       <c r="M99" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N99" s="34"/>
-      <c r="O99" s="36"/>
+      <c r="N99" s="42"/>
+      <c r="O99" s="43"/>
     </row>
     <row r="100" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="38"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="40"/>
+      <c r="C100" s="45"/>
       <c r="D100" s="23" t="s">
         <v>325</v>
       </c>
@@ -39187,20 +38977,20 @@
       <c r="H100" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="34"/>
-      <c r="L100" s="34"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
       <c r="M100" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N100" s="34"/>
-      <c r="O100" s="36"/>
+      <c r="N100" s="42"/>
+      <c r="O100" s="43"/>
     </row>
     <row r="101" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="38"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="41"/>
+      <c r="C101" s="49"/>
       <c r="D101" s="23" t="s">
         <v>328</v>
       </c>
@@ -39216,142 +39006,34 @@
       <c r="H101" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="35"/>
-      <c r="L101" s="35"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
       <c r="M101" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N101" s="35"/>
-      <c r="O101" s="36"/>
+      <c r="N101" s="46"/>
+      <c r="O101" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N17:N24"/>
-    <mergeCell ref="O17:O24"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="K25:K32"/>
-    <mergeCell ref="L25:L32"/>
-    <mergeCell ref="I17:I24"/>
-    <mergeCell ref="J17:J24"/>
-    <mergeCell ref="K17:K24"/>
-    <mergeCell ref="L17:L24"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="N25:N32"/>
-    <mergeCell ref="O25:O32"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="I33:I40"/>
-    <mergeCell ref="J33:J40"/>
-    <mergeCell ref="K33:K40"/>
-    <mergeCell ref="L33:L40"/>
-    <mergeCell ref="N33:N40"/>
-    <mergeCell ref="O33:O40"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="N41:N44"/>
-    <mergeCell ref="O41:O44"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="N45:N48"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="N49:N52"/>
-    <mergeCell ref="O49:O52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="O53:O56"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="K53:K56"/>
-    <mergeCell ref="L53:L56"/>
-    <mergeCell ref="N53:N56"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="N65:N67"/>
-    <mergeCell ref="O65:O67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="J61:J64"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O68:O70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="C71:C77"/>
-    <mergeCell ref="I71:I77"/>
-    <mergeCell ref="J71:J77"/>
-    <mergeCell ref="K71:K77"/>
-    <mergeCell ref="L71:L77"/>
-    <mergeCell ref="N71:N77"/>
-    <mergeCell ref="O71:O77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="N68:N70"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="I98:I101"/>
+    <mergeCell ref="J98:J101"/>
+    <mergeCell ref="K98:K101"/>
+    <mergeCell ref="L98:L101"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="I93:I97"/>
+    <mergeCell ref="J93:J97"/>
+    <mergeCell ref="K93:K97"/>
+    <mergeCell ref="L93:L97"/>
+    <mergeCell ref="N93:N97"/>
+    <mergeCell ref="O93:O97"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="O98:O101"/>
     <mergeCell ref="A83:A87"/>
     <mergeCell ref="C88:C92"/>
     <mergeCell ref="I88:I92"/>
@@ -39376,241 +39058,349 @@
     <mergeCell ref="N88:N92"/>
     <mergeCell ref="O88:O92"/>
     <mergeCell ref="A88:A92"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="I93:I97"/>
-    <mergeCell ref="J93:J97"/>
-    <mergeCell ref="K93:K97"/>
-    <mergeCell ref="L93:L97"/>
-    <mergeCell ref="N93:N97"/>
-    <mergeCell ref="O93:O97"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="O98:O101"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="I98:I101"/>
-    <mergeCell ref="J98:J101"/>
-    <mergeCell ref="K98:K101"/>
-    <mergeCell ref="L98:L101"/>
+    <mergeCell ref="O68:O70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="C71:C77"/>
+    <mergeCell ref="I71:I77"/>
+    <mergeCell ref="J71:J77"/>
+    <mergeCell ref="K71:K77"/>
+    <mergeCell ref="L71:L77"/>
+    <mergeCell ref="N71:N77"/>
+    <mergeCell ref="O71:O77"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="N68:N70"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="N65:N67"/>
+    <mergeCell ref="O65:O67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O53:O56"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="K53:K56"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="N53:N56"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="N45:N48"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="N49:N52"/>
+    <mergeCell ref="O49:O52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="J41:J44"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="N25:N32"/>
+    <mergeCell ref="O25:O32"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="I33:I40"/>
+    <mergeCell ref="J33:J40"/>
+    <mergeCell ref="K33:K40"/>
+    <mergeCell ref="L33:L40"/>
+    <mergeCell ref="N33:N40"/>
+    <mergeCell ref="O33:O40"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="N41:N44"/>
+    <mergeCell ref="O41:O44"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="K25:K32"/>
+    <mergeCell ref="L25:L32"/>
+    <mergeCell ref="I17:I24"/>
+    <mergeCell ref="J17:J24"/>
+    <mergeCell ref="K17:K24"/>
+    <mergeCell ref="L17:L24"/>
+    <mergeCell ref="N17:N24"/>
+    <mergeCell ref="O17:O24"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="94" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="91" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="92" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="93" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="94" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="95" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3 G2">
-    <cfRule type="cellIs" dxfId="89" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="86" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="87" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="88" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="89" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="90" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="81" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="82" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="83" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="84" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="85" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="79" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="76" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="77" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="78" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="79" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="80" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="71" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="72" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="73" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="74" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="75" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="cellIs" dxfId="69" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="66" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="67" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="68" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="69" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="70" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5 G7:H7 G4">
-    <cfRule type="cellIs" dxfId="64" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="61" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="62" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="63" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="64" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="65" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="59" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="56" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="57" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="58" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="59" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="60" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="51" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="52" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="53" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="54" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H12">
-    <cfRule type="cellIs" dxfId="49" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="46" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="47" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="48" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="49" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="50" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
